--- a/coreservice/src/main/resources/vk/adddata.xlsx
+++ b/coreservice/src/main/resources/vk/adddata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dimka\Desktop\java\personal\projects\ETLServices\coreservice\src\main\resources\vk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F964D8-486A-43AC-ACD5-DE1341780DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792BB97F-9707-4CE9-A6D0-E7D84B893A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03FEF0BE-00B7-4B92-9F56-EC57413BCFD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -54,21 +54,6 @@
     <t>Пылаев</t>
   </si>
   <si>
-    <t>Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>59.9386</t>
-  </si>
-  <si>
-    <t>30.3141</t>
-  </si>
-  <si>
     <t>91351823</t>
   </si>
   <si>
@@ -78,9 +63,6 @@
     <t>Неупокоев</t>
   </si>
   <si>
-    <t>Калининград</t>
-  </si>
-  <si>
     <t>235065647</t>
   </si>
   <si>
@@ -90,10 +72,10 @@
     <t>Борисов</t>
   </si>
   <si>
-    <t>54.7065</t>
-  </si>
-  <si>
-    <t>20.511</t>
+    <t>Saint-Petersburg</t>
+  </si>
+  <si>
+    <t>Kaliningrad</t>
   </si>
 </sst>
 </file>
@@ -464,7 +446,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,12 +471,6 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -507,54 +483,42 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
